--- a/simulated_data/10nodes_20len_trial9.xlsx
+++ b/simulated_data/10nodes_20len_trial9.xlsx
@@ -10,20 +10,27 @@
     <sheet name="rss_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="true_dist" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="est_dist_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rss_only_dist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rss_post_averaged_dist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="spring_model_dist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="spring_model_locs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sdp_dist" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="sdp_locs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mds_metric_dist" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mds_metric_locs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mds_non_metric_dist" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mds_non_metric_locs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="sdp_init_spring_dist" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="sdp_init_spring_locs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtimes" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="estimation_performance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="spring_model_dist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="spring_model_locs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estimation_performance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rss_only_dist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rss_pre_averaged_dist" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rss_post_averaged_dist" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spring_model_5inits_dist" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="spring_model_5inits_locs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sdp_dist" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sdp_locs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mds_metric_dist" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mds_metric_locs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mds_non_metric_dist" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mds_non_metric_locs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="sdp_init_spring_dist" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="sdp_init_spring_locs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="lle_dist" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="lle_locs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="isomap_dist" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="isomap_locs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="runtimes" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +559,64 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.01160485911082915</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0116048591145619</v>
+        <v>13.62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.635</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.665000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>16.635</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.545</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7.369999999999999</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.145</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +624,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.624786936827342</v>
+        <v>13.62</v>
       </c>
       <c r="C3" t="n">
-        <v>1.624786936815649</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.265</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.175000000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8.785</v>
+      </c>
+      <c r="G3" t="n">
+        <v>18.305</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11.235</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.965</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11.32</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +659,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.7953192309207241</v>
+        <v>7.635</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7953192309302052</v>
+        <v>11.265</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.779999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.605</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.864999999999998</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.505</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8.875</v>
+      </c>
+      <c r="K4" t="n">
+        <v>17.3</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +694,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.276848048016315</v>
+        <v>8.665000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>1.276848048009818</v>
+        <v>4.175000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.779999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.435</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11.19</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +729,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.774717461369113</v>
+        <v>16.635</v>
       </c>
       <c r="C6" t="n">
-        <v>3.774717461361857</v>
+        <v>8.785</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>26.775</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12.535</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10.87</v>
       </c>
     </row>
     <row r="7">
@@ -613,10 +764,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.401638760888293</v>
+        <v>3.545</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.401638760891382</v>
+        <v>18.305</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.605</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>26.775</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.555</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.375</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +799,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1803011213566695</v>
+        <v>1.8</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1803011213573737</v>
+        <v>11.235</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.864999999999998</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.985</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7.98</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +834,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2661130688163454</v>
+        <v>7.369999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2661130688187984</v>
+        <v>8.965</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.505</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.435</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.985</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.965</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +869,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.007608764400083159</v>
+        <v>1.02</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007608764398557904</v>
+        <v>10.68</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.875</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12.535</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.555</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.71</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +904,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>6.145</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>11.32</v>
+      </c>
+      <c r="D11" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.375</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.965</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>12.13</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>8.359999999999999</v>
+        <v>12.09</v>
       </c>
       <c r="E2" t="n">
-        <v>8.27</v>
+        <v>5.74</v>
       </c>
       <c r="F2" t="n">
-        <v>16.83</v>
+        <v>15.31</v>
       </c>
       <c r="G2" t="n">
-        <v>4.45</v>
+        <v>6.92</v>
       </c>
       <c r="H2" t="n">
-        <v>1.98</v>
+        <v>1.19</v>
       </c>
       <c r="I2" t="n">
-        <v>5.42</v>
+        <v>3.48</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>7.4</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="3">
@@ -754,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.13</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13.31</v>
+        <v>6.52</v>
       </c>
       <c r="E3" t="n">
-        <v>4.33</v>
+        <v>4.51</v>
       </c>
       <c r="F3" t="n">
-        <v>9.779999999999999</v>
+        <v>18.98</v>
       </c>
       <c r="G3" t="n">
-        <v>15.83</v>
+        <v>7.73</v>
       </c>
       <c r="H3" t="n">
-        <v>10.54</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>8.699999999999999</v>
+        <v>10.14</v>
       </c>
       <c r="J3" t="n">
-        <v>11.07</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>12.33</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="4">
@@ -789,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.359999999999999</v>
+        <v>12.09</v>
       </c>
       <c r="C4" t="n">
-        <v>13.31</v>
+        <v>6.52</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.23</v>
+        <v>6.35</v>
       </c>
       <c r="F4" t="n">
-        <v>21.58</v>
+        <v>16.16</v>
       </c>
       <c r="G4" t="n">
-        <v>7.42</v>
+        <v>6.84</v>
       </c>
       <c r="H4" t="n">
-        <v>9.300000000000001</v>
+        <v>12.04</v>
       </c>
       <c r="I4" t="n">
-        <v>11.95</v>
+        <v>11.88</v>
       </c>
       <c r="J4" t="n">
-        <v>9.77</v>
+        <v>12.96</v>
       </c>
       <c r="K4" t="n">
-        <v>15.32</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="5">
@@ -824,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8.27</v>
+        <v>5.74</v>
       </c>
       <c r="C5" t="n">
-        <v>4.33</v>
+        <v>4.51</v>
       </c>
       <c r="D5" t="n">
-        <v>9.23</v>
+        <v>6.35</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.61</v>
+        <v>14.61</v>
       </c>
       <c r="G5" t="n">
-        <v>11.62</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>7.01</v>
+        <v>5.78</v>
       </c>
       <c r="I5" t="n">
-        <v>6.45</v>
+        <v>6.13</v>
       </c>
       <c r="J5" t="n">
-        <v>7.63</v>
+        <v>6.63</v>
       </c>
       <c r="K5" t="n">
-        <v>10.63</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="6">
@@ -859,34 +1130,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16.83</v>
+        <v>15.31</v>
       </c>
       <c r="C6" t="n">
-        <v>9.779999999999999</v>
+        <v>18.98</v>
       </c>
       <c r="D6" t="n">
-        <v>21.58</v>
+        <v>16.16</v>
       </c>
       <c r="E6" t="n">
-        <v>12.61</v>
+        <v>14.61</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>21.27</v>
+        <v>11.26</v>
       </c>
       <c r="H6" t="n">
-        <v>14.85</v>
+        <v>14.16</v>
       </c>
       <c r="I6" t="n">
-        <v>11.44</v>
+        <v>11.86</v>
       </c>
       <c r="J6" t="n">
-        <v>14.99</v>
+        <v>15.1</v>
       </c>
       <c r="K6" t="n">
-        <v>12.02</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="7">
@@ -894,34 +1165,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.45</v>
+        <v>6.92</v>
       </c>
       <c r="C7" t="n">
-        <v>15.83</v>
+        <v>7.73</v>
       </c>
       <c r="D7" t="n">
-        <v>7.42</v>
+        <v>6.84</v>
       </c>
       <c r="E7" t="n">
-        <v>11.62</v>
+        <v>3.4</v>
       </c>
       <c r="F7" t="n">
-        <v>21.27</v>
+        <v>11.26</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>6.42</v>
+        <v>6.34</v>
       </c>
       <c r="I7" t="n">
-        <v>9.859999999999999</v>
+        <v>5.38</v>
       </c>
       <c r="J7" t="n">
-        <v>6.35</v>
+        <v>7.47</v>
       </c>
       <c r="K7" t="n">
-        <v>11.34</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="8">
@@ -929,34 +1200,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.98</v>
+        <v>1.19</v>
       </c>
       <c r="C8" t="n">
-        <v>10.54</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>9.300000000000001</v>
+        <v>12.04</v>
       </c>
       <c r="E8" t="n">
-        <v>7.01</v>
+        <v>5.78</v>
       </c>
       <c r="F8" t="n">
-        <v>14.85</v>
+        <v>14.16</v>
       </c>
       <c r="G8" t="n">
-        <v>6.42</v>
+        <v>6.34</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.46</v>
+        <v>2.3</v>
       </c>
       <c r="J8" t="n">
-        <v>0.66</v>
+        <v>1.16</v>
       </c>
       <c r="K8" t="n">
-        <v>6.02</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="9">
@@ -964,34 +1235,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.42</v>
+        <v>3.48</v>
       </c>
       <c r="C9" t="n">
-        <v>8.699999999999999</v>
+        <v>10.14</v>
       </c>
       <c r="D9" t="n">
-        <v>11.95</v>
+        <v>11.88</v>
       </c>
       <c r="E9" t="n">
-        <v>6.45</v>
+        <v>6.13</v>
       </c>
       <c r="F9" t="n">
-        <v>11.44</v>
+        <v>11.86</v>
       </c>
       <c r="G9" t="n">
-        <v>9.859999999999999</v>
+        <v>5.38</v>
       </c>
       <c r="H9" t="n">
-        <v>3.46</v>
+        <v>2.3</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>3.27</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="10">
@@ -999,34 +1270,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="C10" t="n">
-        <v>11.07</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>9.77</v>
+        <v>12.96</v>
       </c>
       <c r="E10" t="n">
-        <v>7.63</v>
+        <v>6.63</v>
       </c>
       <c r="F10" t="n">
-        <v>14.99</v>
+        <v>15.1</v>
       </c>
       <c r="G10" t="n">
-        <v>6.35</v>
+        <v>7.47</v>
       </c>
       <c r="H10" t="n">
-        <v>0.66</v>
+        <v>1.16</v>
       </c>
       <c r="I10" t="n">
-        <v>3.55</v>
+        <v>3.27</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>5.63</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="11">
@@ -1034,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.4</v>
+        <v>6.88</v>
       </c>
       <c r="C11" t="n">
-        <v>12.33</v>
+        <v>13.61</v>
       </c>
       <c r="D11" t="n">
-        <v>15.32</v>
+        <v>14.3</v>
       </c>
       <c r="E11" t="n">
-        <v>10.63</v>
+        <v>9.32</v>
       </c>
       <c r="F11" t="n">
-        <v>12.02</v>
+        <v>9.34</v>
       </c>
       <c r="G11" t="n">
-        <v>11.34</v>
+        <v>7.46</v>
       </c>
       <c r="H11" t="n">
-        <v>6.02</v>
+        <v>5.71</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="J11" t="n">
-        <v>5.63</v>
+        <v>6.34</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1096,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.7693694711599968</v>
+        <v>0.09191168874246011</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.18102971370672</v>
+        <v>6.381397076845224</v>
       </c>
     </row>
     <row r="3">
@@ -1107,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.23794860545823</v>
+        <v>2.240456791504971</v>
       </c>
       <c r="C3" t="n">
-        <v>6.86218568642468</v>
+        <v>14.55204223669182</v>
       </c>
     </row>
     <row r="4">
@@ -1118,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.379933360291545</v>
+        <v>8.753988067214426</v>
       </c>
       <c r="C4" t="n">
-        <v>-6.067880744062093</v>
+        <v>14.8157632639558</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.05351141375501</v>
+        <v>4.137253325058303</v>
       </c>
       <c r="C5" t="n">
-        <v>2.53664430846181</v>
+        <v>10.45671826486365</v>
       </c>
     </row>
     <row r="6">
@@ -1140,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.844567519040266</v>
+        <v>13.73888033633563</v>
       </c>
       <c r="C6" t="n">
-        <v>12.36762353798959</v>
+        <v>-0.5521979571600425</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3582629158371398</v>
+        <v>6.748325935570909</v>
       </c>
       <c r="C7" t="n">
-        <v>-8.480872986154269</v>
+        <v>8.275698737994103</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.092152608672951</v>
+        <v>0.9917254993262333</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.22498440450486</v>
+        <v>5.608824517249404</v>
       </c>
     </row>
     <row r="9">
@@ -1173,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.221743489163615</v>
+        <v>2.975950544177169</v>
       </c>
       <c r="C9" t="n">
-        <v>1.040337644886209</v>
+        <v>4.437658989545187</v>
       </c>
     </row>
     <row r="10">
@@ -1184,10 +1455,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.702190867329923</v>
+        <v>-0.1450893195448615</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.473287386399469</v>
+        <v>5.396652466227747</v>
       </c>
     </row>
     <row r="11">
@@ -1195,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-6.399632339975177</v>
+        <v>4.556769918865135</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6212640570651242</v>
+        <v>1.142342083034056</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>12.68</v>
+        <v>2.31</v>
       </c>
       <c r="D2" t="n">
-        <v>7.12</v>
+        <v>1.11</v>
       </c>
       <c r="E2" t="n">
-        <v>9.69</v>
+        <v>1.82</v>
       </c>
       <c r="F2" t="n">
-        <v>15.53</v>
+        <v>5.35</v>
       </c>
       <c r="G2" t="n">
-        <v>5.41</v>
+        <v>1.97</v>
       </c>
       <c r="H2" t="n">
-        <v>4.27</v>
+        <v>0.24</v>
       </c>
       <c r="I2" t="n">
-        <v>5.7</v>
+        <v>0.39</v>
       </c>
       <c r="J2" t="n">
-        <v>2.28</v>
+        <v>0.03</v>
       </c>
       <c r="K2" t="n">
-        <v>8.98</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
@@ -1292,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.68</v>
+        <v>2.31</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.68</v>
+        <v>3.42</v>
       </c>
       <c r="E3" t="n">
-        <v>3.13</v>
+        <v>0.49</v>
       </c>
       <c r="F3" t="n">
-        <v>7.41</v>
+        <v>3.04</v>
       </c>
       <c r="G3" t="n">
-        <v>17.52</v>
+        <v>4.28</v>
       </c>
       <c r="H3" t="n">
-        <v>8.41</v>
+        <v>2.55</v>
       </c>
       <c r="I3" t="n">
-        <v>9.4</v>
+        <v>1.92</v>
       </c>
       <c r="J3" t="n">
-        <v>10.4</v>
+        <v>2.29</v>
       </c>
       <c r="K3" t="n">
-        <v>12.25</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4">
@@ -1327,34 +1598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.12</v>
+        <v>1.11</v>
       </c>
       <c r="C4" t="n">
-        <v>12.68</v>
+        <v>3.42</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.69</v>
+        <v>2.93</v>
       </c>
       <c r="F4" t="n">
-        <v>18.38</v>
+        <v>6.46</v>
       </c>
       <c r="G4" t="n">
-        <v>11.83</v>
+        <v>0.86</v>
       </c>
       <c r="H4" t="n">
-        <v>7.27</v>
+        <v>0.87</v>
       </c>
       <c r="I4" t="n">
-        <v>10.97</v>
+        <v>1.5</v>
       </c>
       <c r="J4" t="n">
-        <v>6.98</v>
+        <v>1.14</v>
       </c>
       <c r="K4" t="n">
-        <v>15.1</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="5">
@@ -1362,34 +1633,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.69</v>
+        <v>1.82</v>
       </c>
       <c r="C5" t="n">
-        <v>3.13</v>
+        <v>0.49</v>
       </c>
       <c r="D5" t="n">
-        <v>9.69</v>
+        <v>2.93</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>9.119999999999999</v>
+        <v>3.53</v>
       </c>
       <c r="G5" t="n">
-        <v>14.82</v>
+        <v>3.79</v>
       </c>
       <c r="H5" t="n">
-        <v>5.56</v>
+        <v>2.06</v>
       </c>
       <c r="I5" t="n">
-        <v>7.41</v>
+        <v>1.43</v>
       </c>
       <c r="J5" t="n">
-        <v>7.55</v>
+        <v>1.79</v>
       </c>
       <c r="K5" t="n">
-        <v>10.97</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="6">
@@ -1397,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.53</v>
+        <v>5.35</v>
       </c>
       <c r="C6" t="n">
-        <v>7.41</v>
+        <v>3.04</v>
       </c>
       <c r="D6" t="n">
-        <v>18.38</v>
+        <v>6.46</v>
       </c>
       <c r="E6" t="n">
-        <v>9.119999999999999</v>
+        <v>3.53</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>18.95</v>
+        <v>7.32</v>
       </c>
       <c r="H6" t="n">
-        <v>11.97</v>
+        <v>5.59</v>
       </c>
       <c r="I6" t="n">
-        <v>10.12</v>
+        <v>4.96</v>
       </c>
       <c r="J6" t="n">
-        <v>13.53</v>
+        <v>5.33</v>
       </c>
       <c r="K6" t="n">
-        <v>10.12</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="7">
@@ -1432,34 +1703,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.41</v>
+        <v>1.97</v>
       </c>
       <c r="C7" t="n">
-        <v>17.52</v>
+        <v>4.28</v>
       </c>
       <c r="D7" t="n">
-        <v>11.83</v>
+        <v>0.86</v>
       </c>
       <c r="E7" t="n">
-        <v>14.82</v>
+        <v>3.79</v>
       </c>
       <c r="F7" t="n">
-        <v>18.95</v>
+        <v>7.32</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>9.4</v>
+        <v>1.73</v>
       </c>
       <c r="I7" t="n">
-        <v>8.83</v>
+        <v>2.36</v>
       </c>
       <c r="J7" t="n">
-        <v>7.41</v>
+        <v>1.99</v>
       </c>
       <c r="K7" t="n">
-        <v>9.83</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="8">
@@ -1467,34 +1738,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.27</v>
+        <v>0.24</v>
       </c>
       <c r="C8" t="n">
-        <v>8.41</v>
+        <v>2.55</v>
       </c>
       <c r="D8" t="n">
-        <v>7.27</v>
+        <v>0.87</v>
       </c>
       <c r="E8" t="n">
-        <v>5.56</v>
+        <v>2.06</v>
       </c>
       <c r="F8" t="n">
-        <v>11.97</v>
+        <v>5.59</v>
       </c>
       <c r="G8" t="n">
-        <v>9.4</v>
+        <v>1.73</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.85</v>
+        <v>0.63</v>
       </c>
       <c r="J8" t="n">
-        <v>1.99</v>
+        <v>0.27</v>
       </c>
       <c r="K8" t="n">
-        <v>8.26</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="9">
@@ -1502,34 +1773,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.7</v>
+        <v>0.39</v>
       </c>
       <c r="C9" t="n">
-        <v>9.4</v>
+        <v>1.92</v>
       </c>
       <c r="D9" t="n">
-        <v>10.97</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="n">
-        <v>7.41</v>
+        <v>1.43</v>
       </c>
       <c r="F9" t="n">
-        <v>10.12</v>
+        <v>4.96</v>
       </c>
       <c r="G9" t="n">
-        <v>8.83</v>
+        <v>2.36</v>
       </c>
       <c r="H9" t="n">
-        <v>3.85</v>
+        <v>0.63</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.27</v>
+        <v>0.37</v>
       </c>
       <c r="K9" t="n">
-        <v>4.27</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="10">
@@ -1537,34 +1808,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.28</v>
+        <v>0.03</v>
       </c>
       <c r="C10" t="n">
-        <v>10.4</v>
+        <v>2.29</v>
       </c>
       <c r="D10" t="n">
-        <v>6.98</v>
+        <v>1.14</v>
       </c>
       <c r="E10" t="n">
-        <v>7.55</v>
+        <v>1.79</v>
       </c>
       <c r="F10" t="n">
-        <v>13.53</v>
+        <v>5.33</v>
       </c>
       <c r="G10" t="n">
-        <v>7.41</v>
+        <v>1.99</v>
       </c>
       <c r="H10" t="n">
-        <v>1.99</v>
+        <v>0.27</v>
       </c>
       <c r="I10" t="n">
-        <v>4.27</v>
+        <v>0.37</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>8.26</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="11">
@@ -1572,31 +1843,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8.98</v>
+        <v>1.43</v>
       </c>
       <c r="C11" t="n">
-        <v>12.25</v>
+        <v>0.88</v>
       </c>
       <c r="D11" t="n">
-        <v>15.1</v>
+        <v>2.54</v>
       </c>
       <c r="E11" t="n">
-        <v>10.97</v>
+        <v>0.39</v>
       </c>
       <c r="F11" t="n">
-        <v>10.12</v>
+        <v>3.92</v>
       </c>
       <c r="G11" t="n">
-        <v>9.83</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
-        <v>8.26</v>
+        <v>1.67</v>
       </c>
       <c r="I11" t="n">
-        <v>4.27</v>
+        <v>1.04</v>
       </c>
       <c r="J11" t="n">
-        <v>8.26</v>
+        <v>1.4</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1634,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2744616519408315</v>
+        <v>-0.01160485911082915</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2186152270718519</v>
+        <v>-0.0116048591145619</v>
       </c>
     </row>
     <row r="3">
@@ -1645,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.5529260970126852</v>
+        <v>1.624786936827342</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1078251349941296</v>
+        <v>1.624786936815649</v>
       </c>
     </row>
     <row r="4">
@@ -1656,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.03586125048015545</v>
+        <v>-0.7953192309207241</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6147353494131378</v>
+        <v>-0.7953192309302052</v>
       </c>
     </row>
     <row r="5">
@@ -1667,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.3810944592568685</v>
+        <v>1.276848048016315</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02450605831419628</v>
+        <v>1.276848048009818</v>
       </c>
     </row>
     <row r="6">
@@ -1678,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.4325307409975251</v>
+        <v>3.774717461369113</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6099726226098476</v>
+        <v>3.774717461361857</v>
       </c>
     </row>
     <row r="7">
@@ -1689,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.652577693764244</v>
+        <v>-1.401638760888293</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1524806915217596</v>
+        <v>-1.401638760891382</v>
       </c>
     </row>
     <row r="8">
@@ -1700,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.002719768796415857</v>
+        <v>-0.1803011213566695</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1088387753931452</v>
+        <v>-0.1803011213573737</v>
       </c>
     </row>
     <row r="9">
@@ -1711,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1062169362289552</v>
+        <v>0.2661130688163454</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1430394943868533</v>
+        <v>0.2661130688187984</v>
       </c>
     </row>
     <row r="10">
@@ -1722,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1311191732860207</v>
+        <v>0.007608764400083159</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1564966948502596</v>
+        <v>0.007608764398557904</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2507918037869647</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.4102359778034582</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10.75</v>
+        <v>12.13</v>
       </c>
       <c r="D2" t="n">
-        <v>7.41</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>6.95</v>
+        <v>8.27</v>
       </c>
       <c r="F2" t="n">
-        <v>17.62</v>
+        <v>16.83</v>
       </c>
       <c r="G2" t="n">
-        <v>3.87</v>
+        <v>4.45</v>
       </c>
       <c r="H2" t="n">
-        <v>0.97</v>
+        <v>1.98</v>
       </c>
       <c r="I2" t="n">
-        <v>3.28</v>
+        <v>5.42</v>
       </c>
       <c r="J2" t="n">
-        <v>1.47</v>
+        <v>1.95</v>
       </c>
       <c r="K2" t="n">
-        <v>5.4</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="3">
@@ -1830,34 +2101,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.75</v>
+        <v>12.13</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18.16</v>
+        <v>13.31</v>
       </c>
       <c r="E3" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="F3" t="n">
-        <v>6.87</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>14.62</v>
+        <v>15.83</v>
       </c>
       <c r="H3" t="n">
-        <v>9.779999999999999</v>
+        <v>10.54</v>
       </c>
       <c r="I3" t="n">
-        <v>7.47</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>9.279999999999999</v>
+        <v>11.07</v>
       </c>
       <c r="K3" t="n">
-        <v>5.35</v>
+        <v>12.33</v>
       </c>
     </row>
     <row r="4">
@@ -1865,34 +2136,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.41</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>18.16</v>
+        <v>13.31</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.36</v>
+        <v>9.23</v>
       </c>
       <c r="F4" t="n">
-        <v>25.03</v>
+        <v>21.58</v>
       </c>
       <c r="G4" t="n">
-        <v>3.54</v>
+        <v>7.42</v>
       </c>
       <c r="H4" t="n">
-        <v>8.380000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>10.69</v>
+        <v>11.95</v>
       </c>
       <c r="J4" t="n">
-        <v>8.880000000000001</v>
+        <v>9.77</v>
       </c>
       <c r="K4" t="n">
-        <v>12.81</v>
+        <v>15.32</v>
       </c>
     </row>
     <row r="5">
@@ -1900,34 +2171,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.95</v>
+        <v>8.27</v>
       </c>
       <c r="C5" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="D5" t="n">
-        <v>14.36</v>
+        <v>9.23</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.67</v>
+        <v>12.61</v>
       </c>
       <c r="G5" t="n">
-        <v>10.82</v>
+        <v>11.62</v>
       </c>
       <c r="H5" t="n">
-        <v>5.98</v>
+        <v>7.01</v>
       </c>
       <c r="I5" t="n">
-        <v>3.67</v>
+        <v>6.45</v>
       </c>
       <c r="J5" t="n">
-        <v>5.48</v>
+        <v>7.63</v>
       </c>
       <c r="K5" t="n">
-        <v>1.55</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="6">
@@ -1935,34 +2206,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17.62</v>
+        <v>16.83</v>
       </c>
       <c r="C6" t="n">
-        <v>6.87</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>25.03</v>
+        <v>21.58</v>
       </c>
       <c r="E6" t="n">
-        <v>10.67</v>
+        <v>12.61</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>21.49</v>
+        <v>21.27</v>
       </c>
       <c r="H6" t="n">
-        <v>16.65</v>
+        <v>14.85</v>
       </c>
       <c r="I6" t="n">
-        <v>14.34</v>
+        <v>11.44</v>
       </c>
       <c r="J6" t="n">
-        <v>16.15</v>
+        <v>14.99</v>
       </c>
       <c r="K6" t="n">
-        <v>12.22</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="7">
@@ -1970,34 +2241,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.87</v>
+        <v>4.45</v>
       </c>
       <c r="C7" t="n">
-        <v>14.62</v>
+        <v>15.83</v>
       </c>
       <c r="D7" t="n">
-        <v>3.54</v>
+        <v>7.42</v>
       </c>
       <c r="E7" t="n">
-        <v>10.82</v>
+        <v>11.62</v>
       </c>
       <c r="F7" t="n">
-        <v>21.49</v>
+        <v>21.27</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4.84</v>
+        <v>6.42</v>
       </c>
       <c r="I7" t="n">
-        <v>7.15</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>5.34</v>
+        <v>6.35</v>
       </c>
       <c r="K7" t="n">
-        <v>9.27</v>
+        <v>11.34</v>
       </c>
     </row>
     <row r="8">
@@ -2005,34 +2276,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.97</v>
+        <v>1.98</v>
       </c>
       <c r="C8" t="n">
-        <v>9.779999999999999</v>
+        <v>10.54</v>
       </c>
       <c r="D8" t="n">
-        <v>8.380000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>5.98</v>
+        <v>7.01</v>
       </c>
       <c r="F8" t="n">
-        <v>16.65</v>
+        <v>14.85</v>
       </c>
       <c r="G8" t="n">
-        <v>4.84</v>
+        <v>6.42</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.31</v>
+        <v>3.46</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
       <c r="K8" t="n">
-        <v>4.43</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="9">
@@ -2040,34 +2311,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.28</v>
+        <v>5.42</v>
       </c>
       <c r="C9" t="n">
-        <v>7.47</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>10.69</v>
+        <v>11.95</v>
       </c>
       <c r="E9" t="n">
-        <v>3.67</v>
+        <v>6.45</v>
       </c>
       <c r="F9" t="n">
-        <v>14.34</v>
+        <v>11.44</v>
       </c>
       <c r="G9" t="n">
-        <v>7.15</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2.31</v>
+        <v>3.46</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.81</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>2.12</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="10">
@@ -2075,34 +2346,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.47</v>
+        <v>1.95</v>
       </c>
       <c r="C10" t="n">
-        <v>9.279999999999999</v>
+        <v>11.07</v>
       </c>
       <c r="D10" t="n">
-        <v>8.880000000000001</v>
+        <v>9.77</v>
       </c>
       <c r="E10" t="n">
-        <v>5.48</v>
+        <v>7.63</v>
       </c>
       <c r="F10" t="n">
-        <v>16.15</v>
+        <v>14.99</v>
       </c>
       <c r="G10" t="n">
-        <v>5.34</v>
+        <v>6.35</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
       <c r="I10" t="n">
-        <v>1.81</v>
+        <v>3.55</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3.93</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="11">
@@ -2110,31 +2381,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.4</v>
+        <v>7.4</v>
       </c>
       <c r="C11" t="n">
-        <v>5.35</v>
+        <v>12.33</v>
       </c>
       <c r="D11" t="n">
-        <v>12.81</v>
+        <v>15.32</v>
       </c>
       <c r="E11" t="n">
-        <v>1.55</v>
+        <v>10.63</v>
       </c>
       <c r="F11" t="n">
-        <v>12.22</v>
+        <v>12.02</v>
       </c>
       <c r="G11" t="n">
-        <v>9.27</v>
+        <v>11.34</v>
       </c>
       <c r="H11" t="n">
-        <v>4.43</v>
+        <v>6.02</v>
       </c>
       <c r="I11" t="n">
-        <v>2.12</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.93</v>
+        <v>5.63</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2172,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.364914319802068</v>
+        <v>2.659795019333693</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.364915956141384</v>
+        <v>3.316387990747271</v>
       </c>
     </row>
     <row r="3">
@@ -2183,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.236314097748766</v>
+        <v>-6.984949255034421</v>
       </c>
       <c r="C3" t="n">
-        <v>5.236313912486685</v>
+        <v>-4.03240433017818</v>
       </c>
     </row>
     <row r="4">
@@ -2194,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-7.607310472938641</v>
+        <v>-3.620605005242831</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.607311469334468</v>
+        <v>8.841595586911636</v>
       </c>
     </row>
     <row r="5">
@@ -2205,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.549575798630981</v>
+        <v>-4.77163748829008</v>
       </c>
       <c r="C5" t="n">
-        <v>2.549574999747137</v>
+        <v>-0.3114398969530638</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.09463381853472</v>
+        <v>-2.47907843733992</v>
       </c>
       <c r="C6" t="n">
-        <v>10.09463381217122</v>
+        <v>-12.71192280842682</v>
       </c>
     </row>
     <row r="7">
@@ -2227,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-5.103451113324446</v>
+        <v>3.705713253149999</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.103450612065727</v>
+        <v>7.636834960215755</v>
       </c>
     </row>
     <row r="8">
@@ -2238,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.678497094189698</v>
+        <v>2.016543914244111</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.678494903289265</v>
+        <v>1.441146613933101</v>
       </c>
     </row>
     <row r="9">
@@ -2249,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.04620052154443095</v>
+        <v>1.462860850156838</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.04619948454126676</v>
+        <v>-1.969386879242673</v>
       </c>
     </row>
     <row r="10">
@@ -2260,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.325232448330388</v>
+        <v>2.671381921696438</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.325236858658705</v>
+        <v>1.370519198325259</v>
       </c>
     </row>
     <row r="11">
@@ -2271,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.453197824231724</v>
+        <v>5.339975227326175</v>
       </c>
       <c r="C11" t="n">
-        <v>1.453199137897313</v>
+        <v>-3.581330435332284</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,40 +2568,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2338,25 +2604,349 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001518726348876953</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001630783081054688</v>
+        <v>9.19</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3446941375732422</v>
+        <v>11.6</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9832260608673096</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1058368682861328</v>
+        <v>13.58</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04355454444885254</v>
+        <v>5.66</v>
       </c>
       <c r="H2" t="n">
-        <v>1.049533605575562</v>
+        <v>1.27</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="K3" t="n">
+        <v>16.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="G5" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="K5" t="n">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10.18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="K9" t="n">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11.03</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="D11" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E11" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,262 +2969,522 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>estimation_technique</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>max_error</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>max_percent_error</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>avg_error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>avg_percent_error</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>true_pos_rate</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>false_pos_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0.2526740765627781</v>
       </c>
       <c r="C2" t="n">
-        <v>18.45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.017543859649123</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.624</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.28609125485068</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0001518726348876953</v>
+        <v>-0.1956129581997836</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0.2821893263904982</v>
       </c>
       <c r="C3" t="n">
-        <v>8.375</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6162280701754386</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.572</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1786312828082742</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.04651162790697674</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0001630783081054688</v>
+        <v>0.4562964426031673</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
+      <c r="B4" t="n">
+        <v>-0.2754783374051394</v>
       </c>
       <c r="C4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6708860759493669</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.657111111111112</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1930099672336736</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.02325581395348837</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.3446941375732422</v>
+        <v>0.4267812961747859</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0.01542410833386206</v>
       </c>
       <c r="C5" t="n">
-        <v>13.11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9835164835164835</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6.432888888888888</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7516479099989121</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5348837209302325</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9832260608673096</v>
+        <v>0.4343241585086346</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
+      <c r="B6" t="n">
+        <v>-0.6912075466571218</v>
       </c>
       <c r="C6" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.4296724470134873</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9495555555555554</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1227220743666455</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.02325581395348837</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.1058368682861328</v>
+        <v>-0.03542401973851052</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0.2429901162638027</v>
       </c>
       <c r="C7" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.279383429672447</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.460444444444444</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2375459634060091</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.04355454444885254</v>
+        <v>-0.5977141322281947</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0.2793987004957645</v>
       </c>
       <c r="C8" t="n">
-        <v>9.639999999999999</v>
+        <v>-0.1102189624584054</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.121804683774371</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.06994164910694982</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2911376750146145</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.03228983405085003</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.3114517996750594</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.5262771338330868</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17.62</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="C4" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17.62</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="H6" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.34</v>
+      </c>
+      <c r="J6" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="F7" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.779999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8614834673815907</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>2.046444444444445</v>
+        <v>5.98</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2443993881490347</v>
+        <v>16.65</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>4.84</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06976744186046512</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.049533605575562</v>
+        <v>2.31</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14.34</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="F10" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3890,1325 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-2.364914319802068</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.364915956141384</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.236314097748766</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.236313912486685</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-7.607310472938641</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-7.607311469334468</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.549575798630981</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.549574999747137</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10.09463381853472</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.09463381217122</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-5.103451113324446</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5.103450612065727</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-1.678497094189698</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.678494903289265</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.04620052154443095</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.04619948454126676</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.325232448330388</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.325236858658705</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.453197824231724</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.453199137897313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="F2" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="H3" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="F7" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="J7" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11.46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="G8" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.3289335188754541</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.08892330723906906</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4813194583027993</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1216242318374259</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.06264542054964896</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6727550255696944</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2128998436753905</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.09893550769816611</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6019441462731996</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.112460605438237</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.3693055247624004</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4296043532477594</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.2424099016730127</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.3036041034383513</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.02150989587207608</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.2742170630360325</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.225448911820737</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.307370516646628</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.04591027470139441</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.2363435225546927</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.539999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="H6" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="J6" t="n">
+        <v>17</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10.54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="F8" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-10.73639207897445</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.420574314004048</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13.82763281907617</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.551452110594557</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-9.786602794999913</v>
+      </c>
+      <c r="C4" t="n">
+        <v>17.00038049144357</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.765409443397161</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.73963509529211</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>28.78577602798402</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.2894477171992252</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-14.61742093853676</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.860508537071908</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-7.345257508172678</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-7.351494919769906</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.3055712234260304</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-6.115006235895344</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-6.163913140363852</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-7.015890034387669</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.576339394016363</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-8.959563013145953</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rss_pre_averaged</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>spring_model_5inits</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>lle</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>isomap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0002710819244384766</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0002677440643310547</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0002756118774414062</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.197498321533203</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.455415725708008</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2154889106750488</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1251308917999268</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.4833786487579346</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01422333717346191</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.01343727111816406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5344,31 +7513,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10.93</v>
+        <v>11.33</v>
       </c>
       <c r="D2" t="n">
-        <v>8.859999999999999</v>
+        <v>8.19</v>
       </c>
       <c r="E2" t="n">
-        <v>13.63</v>
+        <v>6.39</v>
       </c>
       <c r="F2" t="n">
-        <v>11.41</v>
+        <v>15.64</v>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>4.69</v>
       </c>
       <c r="H2" t="n">
-        <v>2.06</v>
+        <v>1.42</v>
       </c>
       <c r="I2" t="n">
-        <v>9.199999999999999</v>
+        <v>3.83</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="K2" t="n">
-        <v>6.95</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="3">
@@ -5376,34 +7545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16.31</v>
+        <v>11.33</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.23</v>
+        <v>17.85</v>
       </c>
       <c r="E3" t="n">
-        <v>4.44</v>
+        <v>4.95</v>
       </c>
       <c r="F3" t="n">
-        <v>9.07</v>
+        <v>11.01</v>
       </c>
       <c r="G3" t="n">
-        <v>12.6</v>
+        <v>13.72</v>
       </c>
       <c r="H3" t="n">
-        <v>13.18</v>
+        <v>10.17</v>
       </c>
       <c r="I3" t="n">
-        <v>9.69</v>
+        <v>7.92</v>
       </c>
       <c r="J3" t="n">
-        <v>12.08</v>
+        <v>10.04</v>
       </c>
       <c r="K3" t="n">
-        <v>12.2</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="4">
@@ -5411,34 +7580,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.41</v>
+        <v>8.19</v>
       </c>
       <c r="C4" t="n">
-        <v>15.3</v>
+        <v>17.85</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.279999999999999</v>
+        <v>13.2</v>
       </c>
       <c r="F4" t="n">
-        <v>32.79</v>
+        <v>23.82</v>
       </c>
       <c r="G4" t="n">
-        <v>8.279999999999999</v>
+        <v>4.15</v>
       </c>
       <c r="H4" t="n">
-        <v>10.78</v>
+        <v>9.57</v>
       </c>
       <c r="I4" t="n">
-        <v>14.34</v>
+        <v>11.75</v>
       </c>
       <c r="J4" t="n">
-        <v>9.289999999999999</v>
+        <v>9</v>
       </c>
       <c r="K4" t="n">
-        <v>15.44</v>
+        <v>12.06</v>
       </c>
     </row>
     <row r="5">
@@ -5446,34 +7615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.7</v>
+        <v>6.39</v>
       </c>
       <c r="C5" t="n">
-        <v>3.91</v>
+        <v>4.95</v>
       </c>
       <c r="D5" t="n">
-        <v>6.28</v>
+        <v>13.2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>7.76</v>
+        <v>12.21</v>
       </c>
       <c r="G5" t="n">
-        <v>7.95</v>
+        <v>9.06</v>
       </c>
       <c r="H5" t="n">
-        <v>7.72</v>
+        <v>5.3</v>
       </c>
       <c r="I5" t="n">
-        <v>5.7</v>
+        <v>3.32</v>
       </c>
       <c r="J5" t="n">
-        <v>11.89</v>
+        <v>5.1</v>
       </c>
       <c r="K5" t="n">
-        <v>10.77</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="6">
@@ -5481,34 +7650,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21.86</v>
+        <v>15.64</v>
       </c>
       <c r="C6" t="n">
-        <v>8.5</v>
+        <v>11.01</v>
       </c>
       <c r="D6" t="n">
-        <v>20.71</v>
+        <v>23.82</v>
       </c>
       <c r="E6" t="n">
-        <v>11.74</v>
+        <v>12.21</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>36.85</v>
+        <v>20.01</v>
       </c>
       <c r="H6" t="n">
-        <v>15.55</v>
+        <v>14.25</v>
       </c>
       <c r="I6" t="n">
-        <v>21.26</v>
+        <v>12.18</v>
       </c>
       <c r="J6" t="n">
-        <v>13.06</v>
+        <v>14.86</v>
       </c>
       <c r="K6" t="n">
-        <v>8.869999999999999</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="7">
@@ -5516,34 +7685,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.99</v>
+        <v>4.69</v>
       </c>
       <c r="C7" t="n">
-        <v>24.01</v>
+        <v>13.72</v>
       </c>
       <c r="D7" t="n">
-        <v>4.93</v>
+        <v>4.15</v>
       </c>
       <c r="E7" t="n">
-        <v>10.83</v>
+        <v>9.06</v>
       </c>
       <c r="F7" t="n">
-        <v>16.7</v>
+        <v>20.01</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>5.35</v>
+        <v>5.91</v>
       </c>
       <c r="I7" t="n">
-        <v>15.63</v>
+        <v>7.83</v>
       </c>
       <c r="J7" t="n">
-        <v>7.4</v>
+        <v>5.17</v>
       </c>
       <c r="K7" t="n">
-        <v>8.460000000000001</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5551,34 +7720,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="C8" t="n">
-        <v>9.289999999999999</v>
+        <v>10.17</v>
       </c>
       <c r="D8" t="n">
-        <v>8.949999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="E8" t="n">
-        <v>8.52</v>
+        <v>5.3</v>
       </c>
       <c r="F8" t="n">
-        <v>10.63</v>
+        <v>14.25</v>
       </c>
       <c r="G8" t="n">
-        <v>4.47</v>
+        <v>5.91</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.64</v>
+        <v>2.45</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
       <c r="K8" t="n">
-        <v>8.65</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="9">
@@ -5586,34 +7755,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.54</v>
+        <v>3.83</v>
       </c>
       <c r="C9" t="n">
-        <v>8.24</v>
+        <v>7.92</v>
       </c>
       <c r="D9" t="n">
-        <v>8.67</v>
+        <v>11.75</v>
       </c>
       <c r="E9" t="n">
-        <v>7.17</v>
+        <v>3.32</v>
       </c>
       <c r="F9" t="n">
-        <v>9.039999999999999</v>
+        <v>12.18</v>
       </c>
       <c r="G9" t="n">
-        <v>9.23</v>
+        <v>7.83</v>
       </c>
       <c r="H9" t="n">
-        <v>1.33</v>
+        <v>2.45</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.97</v>
+        <v>2.77</v>
       </c>
       <c r="K9" t="n">
-        <v>3.69</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="10">
@@ -5621,34 +7790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="C10" t="n">
-        <v>9.279999999999999</v>
+        <v>10.04</v>
       </c>
       <c r="D10" t="n">
-        <v>8.460000000000001</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>7.71</v>
+        <v>5.1</v>
       </c>
       <c r="F10" t="n">
-        <v>12.01</v>
+        <v>14.86</v>
       </c>
       <c r="G10" t="n">
-        <v>7.71</v>
+        <v>5.17</v>
       </c>
       <c r="H10" t="n">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="I10" t="n">
-        <v>4.81</v>
+        <v>2.77</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6.15</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="11">
@@ -5656,31 +7825,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.34</v>
+        <v>7.57</v>
       </c>
       <c r="C11" t="n">
-        <v>10.44</v>
+        <v>6.32</v>
       </c>
       <c r="D11" t="n">
-        <v>19.16</v>
+        <v>12.06</v>
       </c>
       <c r="E11" t="n">
-        <v>11.61</v>
+        <v>3.75</v>
       </c>
       <c r="F11" t="n">
-        <v>12.87</v>
+        <v>15.72</v>
       </c>
       <c r="G11" t="n">
-        <v>6.29</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>7.31</v>
+        <v>7.09</v>
       </c>
       <c r="I11" t="n">
-        <v>4.24</v>
+        <v>6.17</v>
       </c>
       <c r="J11" t="n">
-        <v>7.27</v>
+        <v>6.42</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5692,6 +7861,421 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8.655772550991232</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.01065960836979</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.387128547379798</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5712043446635693</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>16.76373581177612</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11.15394426885687</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.32921999306276</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.552294833593107</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-6.663190637179029</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.849107261252521</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>13.23364395934804</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.97138058697716</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7.347889983892252</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.454167109926846</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.478392293869338</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.86582209180752</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8.065480250912882</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.85697294112361</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8.426068801661415</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.444491992521351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>estimation_technique</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max_error</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>max_percent_error</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>avg_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>avg_percent_error</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>true_pos_rate</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>false_pos_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.624</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.28609125485068</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0001518726348876953</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8.375</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6162280701754386</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.572</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1786312828082742</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.04651162790697674</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0001630783081054688</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spring_model</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6708860759493669</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.657111111111112</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1930099672336736</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.02325581395348837</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3446941375732422</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9835164835164835</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.432888888888888</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7516479099989121</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5348837209302325</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9832260608673096</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4296724470134873</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9495555555555554</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1227220743666455</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.02325581395348837</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1058368682861328</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.279383429672447</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.460444444444444</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2375459634060091</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.04355454444885254</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9.639999999999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8614834673815907</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.046444444444445</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2443993881490347</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.06976744186046512</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.049533605575562</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5745,31 +8329,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13.62</v>
+        <v>10.93</v>
       </c>
       <c r="D2" t="n">
-        <v>7.635</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>8.665000000000001</v>
+        <v>13.63</v>
       </c>
       <c r="F2" t="n">
-        <v>16.635</v>
+        <v>11.41</v>
       </c>
       <c r="G2" t="n">
-        <v>3.545</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="I2" t="n">
-        <v>7.369999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>0.8</v>
       </c>
       <c r="K2" t="n">
-        <v>6.145</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="3">
@@ -5777,34 +8361,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13.62</v>
+        <v>16.31</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.265</v>
+        <v>7.23</v>
       </c>
       <c r="E3" t="n">
-        <v>4.175000000000001</v>
+        <v>4.44</v>
       </c>
       <c r="F3" t="n">
-        <v>8.785</v>
+        <v>9.07</v>
       </c>
       <c r="G3" t="n">
-        <v>18.305</v>
+        <v>12.6</v>
       </c>
       <c r="H3" t="n">
-        <v>11.235</v>
+        <v>13.18</v>
       </c>
       <c r="I3" t="n">
-        <v>8.965</v>
+        <v>9.69</v>
       </c>
       <c r="J3" t="n">
-        <v>10.68</v>
+        <v>12.08</v>
       </c>
       <c r="K3" t="n">
-        <v>11.32</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="4">
@@ -5812,34 +8396,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.635</v>
+        <v>6.41</v>
       </c>
       <c r="C4" t="n">
-        <v>11.265</v>
+        <v>15.3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>7.779999999999999</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>26.75</v>
+        <v>32.79</v>
       </c>
       <c r="G4" t="n">
-        <v>6.605</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>9.864999999999998</v>
+        <v>10.78</v>
       </c>
       <c r="I4" t="n">
-        <v>11.505</v>
+        <v>14.34</v>
       </c>
       <c r="J4" t="n">
-        <v>8.875</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>17.3</v>
+        <v>15.44</v>
       </c>
     </row>
     <row r="5">
@@ -5847,34 +8431,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8.665000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="C5" t="n">
-        <v>4.175000000000001</v>
+        <v>3.91</v>
       </c>
       <c r="D5" t="n">
-        <v>7.779999999999999</v>
+        <v>6.28</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>9.75</v>
+        <v>7.76</v>
       </c>
       <c r="G5" t="n">
-        <v>9.390000000000001</v>
+        <v>7.95</v>
       </c>
       <c r="H5" t="n">
-        <v>8.119999999999999</v>
+        <v>7.72</v>
       </c>
       <c r="I5" t="n">
-        <v>6.435</v>
+        <v>5.7</v>
       </c>
       <c r="J5" t="n">
-        <v>9.800000000000001</v>
+        <v>11.89</v>
       </c>
       <c r="K5" t="n">
-        <v>11.19</v>
+        <v>10.77</v>
       </c>
     </row>
     <row r="6">
@@ -5882,34 +8466,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16.635</v>
+        <v>21.86</v>
       </c>
       <c r="C6" t="n">
-        <v>8.785</v>
+        <v>8.5</v>
       </c>
       <c r="D6" t="n">
-        <v>26.75</v>
+        <v>20.71</v>
       </c>
       <c r="E6" t="n">
-        <v>9.75</v>
+        <v>11.74</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>26.775</v>
+        <v>36.85</v>
       </c>
       <c r="H6" t="n">
-        <v>13.09</v>
+        <v>15.55</v>
       </c>
       <c r="I6" t="n">
-        <v>15.15</v>
+        <v>21.26</v>
       </c>
       <c r="J6" t="n">
-        <v>12.535</v>
+        <v>13.06</v>
       </c>
       <c r="K6" t="n">
-        <v>10.87</v>
+        <v>8.869999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5917,34 +8501,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.545</v>
+        <v>2.99</v>
       </c>
       <c r="C7" t="n">
-        <v>18.305</v>
+        <v>24.01</v>
       </c>
       <c r="D7" t="n">
-        <v>6.605</v>
+        <v>4.93</v>
       </c>
       <c r="E7" t="n">
-        <v>9.390000000000001</v>
+        <v>10.83</v>
       </c>
       <c r="F7" t="n">
-        <v>26.775</v>
+        <v>16.7</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4.91</v>
+        <v>5.35</v>
       </c>
       <c r="I7" t="n">
-        <v>12.43</v>
+        <v>15.63</v>
       </c>
       <c r="J7" t="n">
-        <v>7.555</v>
+        <v>7.4</v>
       </c>
       <c r="K7" t="n">
-        <v>7.375</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5952,34 +8536,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="C8" t="n">
-        <v>11.235</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>9.864999999999998</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>8.119999999999999</v>
+        <v>8.52</v>
       </c>
       <c r="F8" t="n">
-        <v>13.09</v>
+        <v>10.63</v>
       </c>
       <c r="G8" t="n">
-        <v>4.91</v>
+        <v>4.47</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.985</v>
+        <v>2.64</v>
       </c>
       <c r="J8" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="K8" t="n">
-        <v>7.98</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="9">
@@ -5987,34 +8571,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.369999999999999</v>
+        <v>5.54</v>
       </c>
       <c r="C9" t="n">
-        <v>8.965</v>
+        <v>8.24</v>
       </c>
       <c r="D9" t="n">
-        <v>11.505</v>
+        <v>8.67</v>
       </c>
       <c r="E9" t="n">
-        <v>6.435</v>
+        <v>7.17</v>
       </c>
       <c r="F9" t="n">
-        <v>15.15</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>12.43</v>
+        <v>9.23</v>
       </c>
       <c r="H9" t="n">
-        <v>1.985</v>
+        <v>1.33</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.39</v>
+        <v>3.97</v>
       </c>
       <c r="K9" t="n">
-        <v>3.965</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="10">
@@ -6022,34 +8606,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="C10" t="n">
-        <v>10.68</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>8.875</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>9.800000000000001</v>
+        <v>7.71</v>
       </c>
       <c r="F10" t="n">
-        <v>12.535</v>
+        <v>12.01</v>
       </c>
       <c r="G10" t="n">
-        <v>7.555</v>
+        <v>7.71</v>
       </c>
       <c r="H10" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.39</v>
+        <v>4.81</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6.71</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="11">
@@ -6057,572 +8641,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.145</v>
+        <v>5.34</v>
       </c>
       <c r="C11" t="n">
-        <v>11.32</v>
+        <v>10.44</v>
       </c>
       <c r="D11" t="n">
-        <v>17.3</v>
+        <v>19.16</v>
       </c>
       <c r="E11" t="n">
-        <v>11.19</v>
+        <v>11.61</v>
       </c>
       <c r="F11" t="n">
-        <v>10.87</v>
+        <v>12.87</v>
       </c>
       <c r="G11" t="n">
-        <v>7.375</v>
+        <v>6.29</v>
       </c>
       <c r="H11" t="n">
-        <v>7.98</v>
+        <v>7.31</v>
       </c>
       <c r="I11" t="n">
-        <v>3.965</v>
+        <v>4.24</v>
       </c>
       <c r="J11" t="n">
-        <v>6.71</v>
+        <v>7.27</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="F2" t="n">
-        <v>15.64</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>7.57</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="F3" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="G3" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="K3" t="n">
-        <v>6.32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="C4" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>23.82</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12.06</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="G5" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>15.64</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="D6" t="n">
-        <v>23.82</v>
-      </c>
-      <c r="E6" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="H6" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="J6" t="n">
-        <v>14.86</v>
-      </c>
-      <c r="K6" t="n">
-        <v>15.72</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="C7" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="F7" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="K7" t="n">
-        <v>8.109999999999999</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="C8" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7.09</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="D9" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="F9" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6.17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>14.86</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6.42</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="D11" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="F11" t="n">
-        <v>15.72</v>
-      </c>
-      <c r="G11" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8.655772550991232</v>
-      </c>
-      <c r="C2" t="n">
-        <v>10.01065960836979</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.387128547379798</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5712043446635693</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>16.76373581177612</v>
-      </c>
-      <c r="C4" t="n">
-        <v>11.15394426885687</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5.32921999306276</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.552294833593107</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-6.663190637179029</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6.849107261252521</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>13.23364395934804</v>
-      </c>
-      <c r="C7" t="n">
-        <v>8.97138058697716</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7.347889983892252</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9.454167109926846</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5.478392293869338</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7.86582209180752</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8.065480250912882</v>
-      </c>
-      <c r="C10" t="n">
-        <v>8.85697294112361</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>8.426068801661415</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.444491992521351</v>
       </c>
     </row>
   </sheetData>
@@ -6684,31 +8730,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.31</v>
+        <v>13.35</v>
       </c>
       <c r="D2" t="n">
-        <v>1.11</v>
+        <v>7.54</v>
       </c>
       <c r="E2" t="n">
-        <v>1.82</v>
+        <v>7.1</v>
       </c>
       <c r="F2" t="n">
-        <v>5.35</v>
+        <v>15.79</v>
       </c>
       <c r="G2" t="n">
-        <v>1.97</v>
+        <v>3.51</v>
       </c>
       <c r="H2" t="n">
-        <v>0.24</v>
+        <v>1.78</v>
       </c>
       <c r="I2" t="n">
-        <v>0.39</v>
+        <v>7.14</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03</v>
+        <v>0.99</v>
       </c>
       <c r="K2" t="n">
-        <v>1.43</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="3">
@@ -6716,34 +8762,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.31</v>
+        <v>13.35</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.42</v>
+        <v>10.51</v>
       </c>
       <c r="E3" t="n">
-        <v>0.49</v>
+        <v>4.17</v>
       </c>
       <c r="F3" t="n">
-        <v>3.04</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>4.28</v>
+        <v>17.39</v>
       </c>
       <c r="H3" t="n">
-        <v>2.55</v>
+        <v>11.06</v>
       </c>
       <c r="I3" t="n">
-        <v>1.92</v>
+        <v>8.94</v>
       </c>
       <c r="J3" t="n">
-        <v>2.29</v>
+        <v>10.59</v>
       </c>
       <c r="K3" t="n">
-        <v>0.88</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="4">
@@ -6751,34 +8797,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.11</v>
+        <v>7.54</v>
       </c>
       <c r="C4" t="n">
-        <v>3.42</v>
+        <v>10.51</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.93</v>
+        <v>7.63</v>
       </c>
       <c r="F4" t="n">
-        <v>6.46</v>
+        <v>26.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.86</v>
+        <v>6.39</v>
       </c>
       <c r="H4" t="n">
-        <v>0.87</v>
+        <v>9.82</v>
       </c>
       <c r="I4" t="n">
-        <v>1.5</v>
+        <v>11.15</v>
       </c>
       <c r="J4" t="n">
-        <v>1.14</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>2.54</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="5">
@@ -6786,34 +8832,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.82</v>
+        <v>7.1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.49</v>
+        <v>4.17</v>
       </c>
       <c r="D5" t="n">
-        <v>2.93</v>
+        <v>7.63</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.53</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>3.79</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2.06</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>1.43</v>
+        <v>6.39</v>
       </c>
       <c r="J5" t="n">
-        <v>1.79</v>
+        <v>9.58</v>
       </c>
       <c r="K5" t="n">
-        <v>0.39</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="6">
@@ -6821,34 +8867,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.35</v>
+        <v>15.79</v>
       </c>
       <c r="C6" t="n">
-        <v>3.04</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>6.46</v>
+        <v>26.06</v>
       </c>
       <c r="E6" t="n">
-        <v>3.53</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7.32</v>
+        <v>24.81</v>
       </c>
       <c r="H6" t="n">
-        <v>5.59</v>
+        <v>12.86</v>
       </c>
       <c r="I6" t="n">
-        <v>4.96</v>
+        <v>13.86</v>
       </c>
       <c r="J6" t="n">
-        <v>5.33</v>
+        <v>12.52</v>
       </c>
       <c r="K6" t="n">
-        <v>3.92</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="7">
@@ -6856,34 +8902,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.97</v>
+        <v>3.51</v>
       </c>
       <c r="C7" t="n">
-        <v>4.28</v>
+        <v>17.39</v>
       </c>
       <c r="D7" t="n">
-        <v>0.86</v>
+        <v>6.39</v>
       </c>
       <c r="E7" t="n">
-        <v>3.79</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>7.32</v>
+        <v>24.81</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.73</v>
+        <v>4.89</v>
       </c>
       <c r="I7" t="n">
-        <v>2.36</v>
+        <v>12.01</v>
       </c>
       <c r="J7" t="n">
-        <v>1.99</v>
+        <v>7.55</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="8">
@@ -6891,34 +8937,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.24</v>
+        <v>1.78</v>
       </c>
       <c r="C8" t="n">
-        <v>2.55</v>
+        <v>11.06</v>
       </c>
       <c r="D8" t="n">
-        <v>0.87</v>
+        <v>9.82</v>
       </c>
       <c r="E8" t="n">
-        <v>2.06</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>5.59</v>
+        <v>12.86</v>
       </c>
       <c r="G8" t="n">
-        <v>1.73</v>
+        <v>4.89</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.63</v>
+        <v>1.87</v>
       </c>
       <c r="J8" t="n">
-        <v>0.27</v>
+        <v>1.03</v>
       </c>
       <c r="K8" t="n">
-        <v>1.67</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="9">
@@ -6926,34 +8972,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.39</v>
+        <v>7.14</v>
       </c>
       <c r="C9" t="n">
-        <v>1.92</v>
+        <v>8.94</v>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>11.15</v>
       </c>
       <c r="E9" t="n">
-        <v>1.43</v>
+        <v>6.39</v>
       </c>
       <c r="F9" t="n">
-        <v>4.96</v>
+        <v>13.86</v>
       </c>
       <c r="G9" t="n">
-        <v>2.36</v>
+        <v>12.01</v>
       </c>
       <c r="H9" t="n">
-        <v>0.63</v>
+        <v>1.87</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.37</v>
+        <v>4.37</v>
       </c>
       <c r="K9" t="n">
-        <v>1.04</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="10">
@@ -6961,34 +9007,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03</v>
+        <v>0.99</v>
       </c>
       <c r="C10" t="n">
-        <v>2.29</v>
+        <v>10.59</v>
       </c>
       <c r="D10" t="n">
-        <v>1.14</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>1.79</v>
+        <v>9.58</v>
       </c>
       <c r="F10" t="n">
-        <v>5.33</v>
+        <v>12.52</v>
       </c>
       <c r="G10" t="n">
-        <v>1.99</v>
+        <v>7.55</v>
       </c>
       <c r="H10" t="n">
-        <v>0.27</v>
+        <v>1.03</v>
       </c>
       <c r="I10" t="n">
-        <v>0.37</v>
+        <v>4.37</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.4</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="11">
@@ -6996,31 +9042,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.43</v>
+        <v>6.09</v>
       </c>
       <c r="C11" t="n">
-        <v>0.88</v>
+        <v>11.28</v>
       </c>
       <c r="D11" t="n">
-        <v>2.54</v>
+        <v>17.2</v>
       </c>
       <c r="E11" t="n">
-        <v>0.39</v>
+        <v>11.18</v>
       </c>
       <c r="F11" t="n">
-        <v>3.92</v>
+        <v>10.68</v>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>7.3</v>
       </c>
       <c r="H11" t="n">
-        <v>1.67</v>
+        <v>7.96</v>
       </c>
       <c r="I11" t="n">
-        <v>1.04</v>
+        <v>3.96</v>
       </c>
       <c r="J11" t="n">
-        <v>1.4</v>
+        <v>6.69</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
